--- a/X2110-Camera/100x/beads-6/center-sigma-red4.xlsx
+++ b/X2110-Camera/100x/beads-6/center-sigma-red4.xlsx
@@ -15,12 +15,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>centers</t>
   </si>
   <si>
     <t>sigmas</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>682.0097710126338</t>
+  </si>
+  <si>
+    <t>22.836389535853694</t>
+  </si>
+  <si>
+    <t>gaussian</t>
+  </si>
+  <si>
+    <t>683.2946254117127</t>
+  </si>
+  <si>
+    <t>22.310971228927166</t>
+  </si>
+  <si>
+    <t>681.0045398935124</t>
+  </si>
+  <si>
+    <t>23.082143914472518</t>
+  </si>
+  <si>
+    <t>lorentzian</t>
+  </si>
+  <si>
+    <t>682.3968611566785</t>
+  </si>
+  <si>
+    <t>22.337690890305094</t>
+  </si>
+  <si>
+    <t>683.5460627536477</t>
+  </si>
+  <si>
+    <t>26.623546419658084</t>
+  </si>
+  <si>
+    <t>683.6637693095828</t>
+  </si>
+  <si>
+    <t>29.287129892903717</t>
+  </si>
+  <si>
+    <t>683.2815837865073</t>
+  </si>
+  <si>
+    <t>29.256428267484743</t>
+  </si>
+  <si>
+    <t>682.3600036328893</t>
+  </si>
+  <si>
+    <t>34.44729360162933</t>
   </si>
 </sst>
 </file>
@@ -369,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,100 +434,127 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>682.0097710126338</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22.83638953585369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>683.2946254117127</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22.31097122892717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>681.0045398935124</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23.08214391447252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>682.3968611566785</v>
-      </c>
-      <c r="C5" t="n">
-        <v>22.33769089030509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>683.5460627536477</v>
-      </c>
-      <c r="C6" t="n">
-        <v>26.62354641965808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>683.6637693095828</v>
-      </c>
-      <c r="C7" t="n">
-        <v>29.28712989290372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>683.2815837865073</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29.25642826748474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>682.3600036328893</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34.44729360162933</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
